--- a/data/trans_dic/P40_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P40_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra parado/a en la actualidad</t>
+          <t>Población que se encuentra parado/a en la actualidad (tasa de respuesta: 99,8%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>20,17%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26,76%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>18,3%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>15,68%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>11,99%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>10,42%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,92%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>17,12%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>20,57%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>18,69%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>16,64%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>9,04%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>8,35%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>18,74%</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>16,1%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>8,84%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>8,4%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>13,0%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>18,73%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>23,77%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,73; 25,47</t>
+          <t>14,06; 25,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,47; 24,31</t>
+          <t>11,24; 24,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 11,65</t>
+          <t>2,6; 10,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 11,74</t>
+          <t>3,38; 13,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,66; 28,52</t>
+          <t>9,31; 24,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,11; 26,85</t>
+          <t>13,06; 29,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,95; 22,7</t>
+          <t>18,17; 37,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,57; 16,66</t>
+          <t>12,43; 26,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,31; 14,84</t>
+          <t>9,49; 22,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,05; 25,4</t>
+          <t>8,12; 17,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,77; 23,17</t>
+          <t>6,3; 15,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,5; 21,55</t>
+          <t>5,9; 15,67</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>6,27; 12,49</t>
+          <t>10,93; 24,85</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 11,93</t>
+          <t>14,2; 28,25</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>14,06; 24,86</t>
+          <t>15,0; 23,94</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>11,93; 20,91</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>6,11; 12,56</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 12,12</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>9,12; 18,27</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>13,47; 24,45</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>18,32; 29,81</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>18,23%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20,28%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>27,58%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>32,88%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>22,44%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>32,82%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>22,51%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>23,37%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>15,95%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>24,13%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>26,33%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>27,86%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>20,13%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>18,16%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>27,56%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>20,09%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>18,26%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>11,58%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>17,13%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>22,18%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,67; 34,97</t>
+          <t>17,62; 35,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,21; 33,46</t>
+          <t>15,26; 34,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,67; 25,3</t>
+          <t>12,4; 25,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,95; 19,69</t>
+          <t>8,84; 20,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,6; 26,78</t>
+          <t>4,41; 14,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,09; 34,17</t>
+          <t>11,59; 26,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,33; 41,06</t>
+          <t>12,74; 29,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,29; 28,34</t>
+          <t>21,51; 34,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,89; 29,5</t>
+          <t>25,76; 40,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,24; 22,16</t>
+          <t>17,79; 28,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,57; 32,54</t>
+          <t>17,56; 29,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,47; 34,14</t>
+          <t>9,73; 21,24</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>16,12; 24,49</t>
+          <t>11,24; 22,18</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14,31; 22,72</t>
+          <t>17,95; 31,75</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>12,89; 21,94</t>
+          <t>21,76; 32,13</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>22,59; 34,64</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>15,79; 24,36</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>14,65; 22,8</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>8,13; 16,05</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>12,68; 22,63</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>17,16; 27,77</t>
         </is>
       </c>
     </row>
@@ -1025,72 +1194,102 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>13,76%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21,37%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>25,6%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>22,29%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>16,7%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>22,93%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>16,57%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>15,97%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>18,11%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>20,84%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>21,71%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>20,52%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>13,57%</t>
-        </is>
-      </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>23,57%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>21,7%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>19,61%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>13,54%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>13,6%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>12,28%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>17,1%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>22,42%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,86; 24,06</t>
+          <t>13,34; 24,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,89; 30,11</t>
+          <t>11,3; 23,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,74; 15,08</t>
+          <t>6,96; 15,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,97; 16,55</t>
+          <t>7,33; 18,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,52; 18,81</t>
+          <t>3,14; 10,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,92; 30,32</t>
+          <t>9,54; 19,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,25; 27,73</t>
+          <t>15,2; 29,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,31; 20,99</t>
+          <t>21,12; 30,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,5; 19,63</t>
+          <t>18,22; 27,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,85; 25,84</t>
+          <t>13,17; 20,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,26; 25,66</t>
+          <t>12,63; 19,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,36; 26,55</t>
+          <t>14,24; 23,31</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>10,9; 16,39</t>
+          <t>16,29; 26,6</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>10,77; 16,74</t>
+          <t>18,23; 29,41</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>13,95; 20,77</t>
+          <t>18,21; 25,33</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>15,77; 24,09</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>10,82; 16,4</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>10,96; 17,55</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>9,64; 15,25</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>14,03; 20,74</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>18,06; 27,72</t>
         </is>
       </c>
     </row>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>14,09%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>18,35%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17,96%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>27,25%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>22,41%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>17,15%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>25,66%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>21,63%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>17,94%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>14,07%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>14,13%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>17,29%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>21,82%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>20,87%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,28; 20,2</t>
+          <t>11,71; 20,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,31; 18,25</t>
+          <t>9,01; 18,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 15,38</t>
+          <t>6,91; 16,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,1; 17,48</t>
+          <t>7,15; 17,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,67; 24,95</t>
+          <t>10,15; 19,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,2; 31,83</t>
+          <t>13,01; 25,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,89; 27,38</t>
+          <t>13,17; 23,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,36; 21,34</t>
+          <t>22,89; 32,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,78; 21,16</t>
+          <t>17,91; 27,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,86; 31,76</t>
+          <t>13,57; 22,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,46; 25,39</t>
+          <t>14,0; 21,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,82; 21,59</t>
+          <t>16,4; 25,24</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>11,15; 17,05</t>
+          <t>20,33; 31,78</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>11,22; 17,33</t>
+          <t>18,63; 29,92</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>17,84; 26,53</t>
+          <t>18,51; 24,98</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>15,03; 21,78</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>11,09; 17,28</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>11,3; 17,78</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>14,2; 20,88</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>17,74; 26,29</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>17,25; 25,13</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1654,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1375,62 +1664,92 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>8,39%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>23,8%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20,87%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>19,68%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>18,96%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>13,76%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>13,57%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14,12%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15,7%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>14,73%</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>22,19%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>20,53%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>19,8%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>14,52%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>14,0%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>19,44%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>14,42%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>14,07%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>12,11%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
         <is>
           <t>19,07%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>21,55%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,18; 29,63</t>
+          <t>15,84; 29,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,58; 28,81</t>
+          <t>14,6; 28,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,95; 22,31</t>
+          <t>10,92; 21,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,52; 20,87</t>
+          <t>9,71; 20,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,67; 30,18</t>
+          <t>5,42; 12,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,19; 25,38</t>
+          <t>18,1; 31,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,74; 24,34</t>
+          <t>15,46; 27,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,08; 19,22</t>
+          <t>14,88; 24,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,39; 19,01</t>
+          <t>14,59; 25,18</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,67; 20,24</t>
+          <t>9,37; 18,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,59; 25,19</t>
+          <t>10,01; 18,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,13; 24,52</t>
+          <t>10,58; 21,31</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>11,58; 18,22</t>
+          <t>10,45; 20,01</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>11,05; 18,21</t>
+          <t>16,83; 28,83</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>15,13; 23,15</t>
+          <t>16,59; 24,91</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>15,69; 24,27</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>11,48; 18,39</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>10,99; 18,05</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>9,24; 16,32</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>15,48; 23,23</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>17,56; 25,73</t>
         </is>
       </c>
     </row>
@@ -1535,72 +1884,102 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>2,22%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1,43%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
           <t>1,41%</t>
         </is>
       </c>
-      <c r="M14" s="2" t="inlineStr">
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>0,82%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>1,07%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>1,27%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
         <is>
           <t>1,75%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,8</t>
+          <t>0,0; 3,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,68</t>
+          <t>0,0; 8,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,02</t>
+          <t>0,0; 10,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,54; 6,27</t>
+          <t>0,0; 6,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,64</t>
+          <t>0,53; 6,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,54</t>
+          <t>0,49; 4,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,34</t>
+          <t>0,0; 7,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,46</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,19</t>
+          <t>0,0; 2,1</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>0,0; 2,11</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,04</t>
+          <t>0,0; 7,64</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 3,61</t>
+          <t>0,0; 4,58</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 5,54</t>
+          <t>0,43; 3,93</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>0,59; 4,52</t>
+          <t>0,0; 3,31</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 1,85</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 3,86</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 4,37</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,32</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 3,86</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 3,31</t>
         </is>
       </c>
     </row>
@@ -1705,72 +2114,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>15,96%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18,16%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>19,56%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>18,25%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>13,48%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>13,55%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>13,31%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>13,37%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>15,39%</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>18,47%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>18,04%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>16,99%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>11,94%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>11,53%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>16,63%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>11,9%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>11,59%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>11,22%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>15,68%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>18,32%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,1; 18,9</t>
+          <t>14,26; 19,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,02; 18,63</t>
+          <t>12,1; 17,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,55; 12,39</t>
+          <t>8,45; 12,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,66; 11,85</t>
+          <t>8,1; 12,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,8; 18,68</t>
+          <t>7,08; 10,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,54; 21,5</t>
+          <t>13,65; 18,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,14; 20,58</t>
+          <t>15,49; 21,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,98; 15,34</t>
+          <t>17,52; 21,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,75; 15,04</t>
+          <t>16,19; 20,46</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>13,5; 17,63</t>
+          <t>11,98; 15,22</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>16,52; 19,66</t>
+          <t>11,59; 14,96</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,33; 18,78</t>
+          <t>11,42; 15,42</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>10,71; 13,39</t>
+          <t>13,29; 17,72</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>10,4; 12,94</t>
+          <t>16,16; 21,04</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>14,08; 17,44</t>
+          <t>16,53; 19,89</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>14,99; 18,39</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>10,6; 13,12</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>10,41; 13,03</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>10,03; 12,65</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>14,08; 17,19</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>16,68; 20,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra parado/a en la actualidad (tasa de respuesta: 99,8%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>97659</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>85487</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>28871</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>32486</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>73971</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8487</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11023</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>84727</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>70833</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>63024</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>53559</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>47365</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>6401</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>7929</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>182386</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>156321</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>91895</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>86045</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>121336</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>14888</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>18952</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>72142; 131497</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>56435; 124524</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13642; 53108</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17233; 70996</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>42447; 111467</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5496; 12369</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7485; 15649</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>57555; 124248</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>44499; 103892</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>41828; 89781</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>32369; 80478</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>28175; 74774</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4086; 9294</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5475; 10892</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>146406; 233633</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>115850; 202993</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>63479; 130542</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>57015; 124162</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>85092; 170531</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>10702; 19428</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>14605; 23774</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>141889</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>130843</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>100890</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>81197</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>50351</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8946</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9471</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>143111</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>169477</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>114347</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>120923</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>74524</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7380</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>10984</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>285000</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>300320</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>215237</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>202121</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>124875</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>16326</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>20455</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>99267; 201307</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>87484; 196488</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>69851; 141520</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>52140; 119577</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>25385; 83337</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5688; 13062</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5947; 13870</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>111604; 176683</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>132995; 208681</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>90363; 145679</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>90855; 153432</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>48865; 106702</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5202; 10265</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>8170; 14453</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>235554; 347789</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>246168; 377495</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>169116; 260935</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>162142; 252438</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>87671; 173123</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>12087; 21575</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>15828; 25610</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>118926</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>109377</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>70433</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>75580</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>41136</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8284</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>12857</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>177176</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>163401</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>118771</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>113727</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>128766</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>11235</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>12846</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>296102</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>272777</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>189204</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>189307</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>169902</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>19519</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>25704</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>89653; 163746</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>76666; 160718</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>47356; 105326</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>49839; 125902</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>21122; 71516</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5747; 11824</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9143; 17532</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>146166; 212786</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>129808; 197970</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>94383; 149644</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>89961; 141761</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>101223; 165724</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>8782; 14342</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>9938; 16029</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>248481; 345619</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>219284; 335034</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>151206; 229193</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>152641; 244387</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>133395; 211114</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>16007; 23666</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>20710; 31786</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>98775</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>84312</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>65711</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>68287</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>91968</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10695</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10049</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>191018</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>154799</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>119933</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>114925</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>134280</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>13456</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>12681</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>289794</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>239111</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>185644</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>183212</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>226248</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>24152</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>22731</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>74792; 129130</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>58336; 116653</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>44608; 103624</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>45530; 111727</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>66292; 126499</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7582; 14887</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>7370; 13122</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>160477; 230005</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>122778; 190460</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>91381; 148175</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>92370; 140941</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>107492; 165493</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>10657; 16660</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>9872; 15857</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>247922; 334655</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>200319; 290287</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>146278; 228035</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>146529; 230479</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>185781; 273233</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>19642; 29106</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>18796; 27380</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>109346</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>98096</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>76737</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>68830</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>41346</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>10589</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9156</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>98469</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>96731</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>68265</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>72731</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>80002</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>7151</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>10286</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>207815</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>194827</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>145002</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>141562</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>121348</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>17740</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>19442</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>81111; 152250</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>72291; 141087</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>54845; 106439</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>47706; 101026</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>26700; 61678</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8051; 13855</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6779; 12060</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>74450; 123485</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>73947; 127620</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>47138; 92095</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>51554; 97008</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>53898; 108580</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>5073; 9716</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>7800; 13361</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>167937; 252190</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>157263; 243277</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>115369; 184851</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>110619; 181695</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>92594; 163576</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>14399; 21615</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>15840; 23208</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3177</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7654</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10410</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>6790</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>10454</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5322</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>13636</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>10454</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>8499</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>12272</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>14573</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>20426</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>1629</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 19193</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 42951</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 55914</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 39054</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>248; 2865</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>222; 1881</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 54629</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 18272</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14544</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14561</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 55200</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2921</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>272; 2485</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>0; 42166</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>2316; 23281</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>2086; 47094</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>1886; 53364</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>0; 55509</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>763; 4270</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>593; 3607</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>512.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>409.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>351.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>372.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>566596</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>511291</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>350297</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>336790</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>305561</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>48041</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>53286</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>704954</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>660564</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>488958</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>480029</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>478573</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>46521</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>55626</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1271551</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1171855</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>839254</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>816819</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>784134</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>94563</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>108912</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>491496; 665223</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>416495; 604782</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>291148; 425348</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>278527; 413915</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>241576; 371286</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>41092; 56199</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>45463; 62383</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>631416; 783681</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>583429; 737209</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>432145; 548929</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>418071; 539693</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>408697; 551802</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>40185; 53557</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>48665; 63342</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1165125; 1402016</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1056106; 1295443</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>747262; 925654</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>733469; 918438</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>700973; 884139</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>84953; 103679</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>99179; 120466</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>